--- a/biology/Botanique/Scytosiphonaceae/Scytosiphonaceae.xlsx
+++ b/biology/Botanique/Scytosiphonaceae/Scytosiphonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Scytosiphonaceae sont une famille d’algues brunes de l’ordre des Ectocarpales selon AlgaeBase                                           (29 oct. 2012)[2], de celui des Scytosiphonales selon ITIS      (29 oct. 2012)[3]. 
-La famille des Chnoosporaceae est incluse dans la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Scytosiphonaceae sont une famille d’algues brunes de l’ordre des Ectocarpales selon AlgaeBase                                           (29 oct. 2012), de celui des Scytosiphonales selon ITIS      (29 oct. 2012). 
+La famille des Chnoosporaceae est incluse dans la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Scytosiphon, dérivé des mots grecs σκῦτος / skýtos, «  lanière de cuir ; fouet », et σιφων / sifon, « tube creux », littéralement « fouet en forme de tube » ou « tube en forme de fouet », en référence à la forme des frondes.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (23 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (23 août 2017) :
 Chnoospora J.Agardh
 Colpomenia (Endlicher) Derbès &amp; Solier
 Endarachne J.Agardh
@@ -562,14 +578,14 @@
 Rosenvingea Børgesen
 Scytosiphon C.Agardh
 Symphyocarpus Rosenvinge
-Selon ITIS      (23 août 2017)[5] :
+Selon ITIS      (23 août 2017) :
 Colpomenia
 Endarachne
 Hydroclathrus
 Petalonia
 Rosenvingea
 Scytosiphon
-Selon World Register of Marine Species                               (23 août 2017)[6] :
+Selon World Register of Marine Species                               (23 août 2017) :
 Analipus Kjellman, 1889
 Chlorosiphon Kützing, 1843
 Chnoospora J.Agardh, 1847
